--- a/Database/database1.xlsx
+++ b/Database/database1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khushimehta/Desktop/mini-project-one 1/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4234724-6354-6D4A-92F2-7B7E6B1F4637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052E787-8E35-6240-BCEB-8DDCF7541068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{D4E07BE7-B0B0-E344-9DB5-FA7A25B518D2}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{D4E07BE7-B0B0-E344-9DB5-FA7A25B518D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
   <si>
     <t>Monitors</t>
   </si>
@@ -244,16 +244,6 @@
   </si>
   <si>
     <t>https://www.amazon.in/Zebronics-Zeb-Cronus-Cabinet-Tempered-Rainbow/dp/B07ZQG2WSC/ref=sxin_9_lp-trr-2-eu_ae4f536fcd560b7eaac65f089003cd69c427ab90?cv_ct_cx=Cabinets&amp;dchild=1&amp;keywords=Cabinets&amp;pd_rd_i=B07ZQG2WSC&amp;pd_rd_r=493690b8-3256-4264-b071-35499b09e184&amp;pd_rd_w=UiceO&amp;pd_rd_wg=I0Ay6&amp;pf_rd_p=78e32c6c-1456-497e-a456-6b663737a3ea&amp;pf_rd_r=QGPR9V2S2SXCV2HKK84D&amp;qid=1602309518&amp;sr=1-3-439ac954-ad46-4ba0-bd86-480f8aab80ed</t>
-  </si>
-  <si>
-    <t>Zebronics Zeb-Cronus Premium Gaming Cabinet with Mirror Finish Tempered Glass On Front,Tempered Glass On Side &amp; 4 x120mm Rainbow Double Ring LED Fans</t>
-  </si>
-  <si>
-    <t>Zeb-Cronus is a premium gaming cabinet that comes with support for ATX/ mATX with mirror-finish front &amp; tempered glass front and side panel, 4 x120mm Rainbow LED double ring fans in the front and rear.
-The PSU is top-mounted and has an optimized design for airflow.
-Form factor : Mid tower
-Motherboard : ATX/Matx
-AIO Cooler : Rear 120mm</t>
   </si>
   <si>
     <t>https://www.amazon.in/HyperX-3200MHz-Desktop-Memory-HX432C16FB3/dp/B07WJJ9CNG/ref=sr_1_3?dchild=1&amp;keywords=RAM&amp;qid=1602309459&amp;sr=8-3</t>
@@ -296,16 +286,6 @@
   </si>
   <si>
     <t>https://www.amazon.in/Cooler-Master-Controller-Coolers-Radiators/dp/B0787FVBV8/ref=sr_1_2?dchild=1&amp;keywords=Fans+and+PSUs&amp;qid=1602309900&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t>Cooler Master Wired RGB Controller C10L 3 Mode Ideal for RGB Case Coolers and Radiators Fans</t>
-  </si>
-  <si>
-    <t>Mode switch button -switch between 6 lighting effects Star, static, color cycle, color cycle Breathing, mirage and Breathing
-Color switch button - switch between 7 vibrant colors across all connect devices
-Brightness button - adjust your LED lights between 5 different brightness levels
-No software required - No RGB motherboard required
-Ideal for RGB case, coolers and radiators fans</t>
   </si>
   <si>
     <t>https://www.amazon.in/MSI-H310M-PRO-VDH-PLUS-Plus/dp/B07MT6BVR6/ref=sr_1_3?dchild=1&amp;keywords=Motherboard&amp;qid=1602309778&amp;sr=8-3</t>
@@ -533,33 +513,6 @@
     <t>Power Unit/Cooling</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-	 "category": "Power Unit/Cooling",
-        "name": "",
-        "description": "",
-        "price": "₹",
-        "pictures": ["",""] 
-}	 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-	 "category": "Memory",
-        "name": "",
-        "description": "",
-        "price": "₹",
-        "pictures": ["",""] 
-}	 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-	 "category": "Cabinets",
-        "name": "",
-        "description": "",
-        "price": "₹",
-        "pictures": ["",""] 
-}	 </t>
-  </si>
-  <si>
     <t>https://www.amazon.in/CHIPTRONEX-MX1-RGB-Tempered-Preinstalled/dp/B07WZGDNK5/ref=sr_1_5?dchild=1&amp;keywords=Cabinets&amp;qid=1602309518&amp;sr=8-5</t>
   </si>
   <si>
@@ -591,6 +544,191 @@
 Support 2 x HDD and 2 x SSD, 1 x flash card reader/support ATX, MICRO-ATX, MINI-ITX motherboard",
         "price": "₹3,699",
         "pictures": ["https://images-na.ssl-images-amazon.com/images/I/515qC3Er6YL._SL1000_.jpg","https://images-na.ssl-images-amazon.com/images/I/61srm9dS1KL._SL1000_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Power Unit/Cooling",
+        "name": "Cooler Master Wired RGB Controller C10L 3 Mode Ideal for RGB Case Coolers and Radiators Fans",
+        "description": "Mode switch button -switch between 6 lighting effects Star, static, color cycle, color cycle Breathing, mirage and Breathing
+Color switch button - switch between 7 vibrant colors across all connect devices
+Brightness button - adjust your LED lights between 5 different brightness levels
+No software required - No RGB motherboard required
+Ideal for RGB case, coolers and radiators fans",
+        "price": "₹599",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/51a2jxo7THL._SL1000_.jpg","https://images-na.ssl-images-amazon.com/images/I/61XQHn1fKBL._SL1000_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/upHere-Control-Cooling-Computer-PF1206-5/dp/B088GXFBFC/ref=sr_1_4?dchild=1&amp;keywords=Fans+and+PSUs&amp;qid=1602309900&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/80-Bronze-Certified-Hydraulic-Long-life/dp/B01HTBAJNU/ref=sr_1_6?dchild=1&amp;keywords=Fans+and+PSUs&amp;qid=1602309900&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Power Unit/Cooling",
+        "name": "upHere 120mm RGB LED with Remote Control PC Cooling Fan Ultra Quiet High Airflow for Computer Case CPU Cooler,PF1206-5",
+        "description": "1. Dynamic RGB illumination:super bright center RGB LED outputs vivid light and color.
+2.RF Wireless Remote：By using the remote controller to easily switch the fan speed and choose lighting effects. It's also very convenient to switch to MB controller.
+3.Two Way Installation:Easy for installation.You can either blow warm air out of the case or draw cool air into your case.
+4.Anti-vibration design:Equipped with 8 anti-vibration rubber pads to effectively prevent vibration during operation, greatly reducing noise and improving efficiency.",
+        "price": "₹2,999",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/61WFVw2ywIL._SL1500_.jpg","https://images-na.ssl-images-amazon.com/images/I/71Hg1GFdgiL._SL1500_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Power Unit/Cooling",
+        "name": "Circle Gaming APFC Modular 450 Watt 80 PLUS Bronze Certified Power Supply with Hydraulic Long-life sleeve with 140 mm FAN SIZE PSU",
+        "description": "ATX 12V 2.3 &amp; EPS 12 V 2.92 80 PLUS BRONZE Certified 230V EU Standard with Efficiency more than 85%
+APFC (99%PF Typical) gives clean and reliable power  \n  New 4th Gen CPU Certified Haswell Ready  \n  SLI Ready
+ErP Lot 6 Complaint \n Multi GPU Technologies Supported  \n  Intel and AMD Supported  \n  A dedicated single + 12V rail offers maximum compatibility with latest components
+High reliable 105 degree Celsius Japnese Brand Capacitors  \n  14 CM Smart Temperature Control Bearing Fan reduces energy waste, boosts power efficeincy
+OVP (Over Voltage Protection)  \n  UVP (Under Voltage Protection)  \n  OCP (Over Current Protection)  \n  OPP (Over Power protection)  \n  SCP (Short Circuit Protection)  \n  OTP (Over Temperature Protection)",
+        "price": "₹3,999",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/61ith2d%2BOCL._SL1000_.jpg","https://images-na.ssl-images-amazon.com/images/I/61l5UyHaObL._SL1000_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/ASUS-heatsinks-Axial-tech-Technology-Certification/dp/B08BX7JXC3/ref=sr_1_8?dchild=1&amp;keywords=Fans+and+PSUs&amp;qid=1602309900&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Zebronics-Zeb-Cronus-Cabinet-Tempered-Rainbow/dp/B07ZQG2WSC/ref=sr_1_10?dchild=1&amp;keywords=Cabinets&amp;qid=1602309518&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Cabinets",
+        "name": "Zebronics Zeb-Cronus Premium Gaming Cabinet with Mirror Finish Tempered Glass On Front,Tempered Glass On Side &amp; 4 x120mm Rainbow Double Ring LED Fans",
+        "description": "Zeb-Cronus is a premium gaming cabinet that comes with support for ATX/ mATX with mirror-finish front &amp; tempered glass front and side panel, 4 x120mm Rainbow LED double ring fans in the front and rear.
+The PSU is top-mounted and has an optimized design for airflow.
+Form factor : Mid tower
+Motherboard : ATX/Matx
+AIO Cooler : Rear 120mm",
+        "price": "₹3,599",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/71va1gKN5YL._SL1500_.jpg","  https://images-na.ssl-images-amazon.com/images/I/71kQzHOfs9L._SL1500_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/MSI-MAG-100R-Addressable-Computer/dp/B07YQ7HXBD/ref=sr_1_48?dchild=1&amp;keywords=Cabinets&amp;qid=1602859428&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Cabinets",
+        "name": "MSI MAG Forge 100R Addressable RGB Computer Gaming Cabinet/Case Support ATX/mATX/Mini-ITX 2 x USB 3.2 Gen1 Type-A / 1 x HD Audio / 1 x Mic",
+        "description": "OPTIMIZED AIR FLOW - Front: 2 x 120 mm addressable RGB LED (Fan included) Rear: 1 x 120mm System (Fan included)
+Fan Support - Front: Up to 3 x 120 mm / 2 x 140 mm Top: Up to 2 x 120 mm / 2 x 140 mm Rear: Up to 1 x 120 mm
+Designed with multiple easy installation mechanisms and accommodated an up to ATX motherboard to provide an unhindered building experience.
+The light gray tone of 4mm tempered glass side panel is ideal for displaying RGB lighting effects and provides clear internal component construction.
+Customizing Addressable RGB LEDs integrated in the front, top &amp; rear cover with a dedicated control button",
+        "price": "₹5,999",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/61yusMow4fL._SL1024_.jpg","https://images-na.ssl-images-amazon.com/images/I/61gvASnwWmL._SL1000_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Power Unit/Cooling",
+               "name": "ASUS ROG Strix 850W White Edition PSU, Power Supply (ROG heatsinks, Axial-tech Fan Design, Dual Ball Fan Bearings, 0dB Technology, 80 Plus Gold Certification, Fully Modular Cables, 10-Year Warranty)",
+        "description": "This PSU features sleeved modular cables, a variety of decals, and is dressed to compliment the aesthetics of a white gaming rig. Massive ROG heatsinks trickle down from the mighty ROG Thor series and Axial-tech fan design from our premium NVIDIA RTX graphics cards also make an appearance. Below the surface, low RDS (on) MOSFETs and premium Japanese capacitors take on power delivery with ease. The result is an incredibly quiet and efficient power supply with the reserves to handle the most intense gaming scenarios. ROG Heatsinks Let it sink in The integrated ROG heatsinks have 2x more volume than traditional designs, resulting in significantly lower temperatures inside Strix PSUs. This extends the lifespan of components and allows 0dB operation for a longer duration than standard designs. The heatsinks are so effective that fan noise stays whisper quiet, even under full load.",
+        "price": "₹26,500",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/81uragxnBnL._SL1500_.jpg","https://images-na.ssl-images-amazon.com/images/I/81REJ%2BfyLzL._SL1500_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.amazon.in/Kanget-Assemble-Desktop-Keyboard-Mouse/dp/B07XSDZT4Q/ref=sr_1_4?dchild=1&amp;keywords=CPU&amp;qid=1602309206&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "CPU",
+        "name": "Kanget Assemble Desktop PC CPU with 320 GB HDD | 4 GB DDR3 RAM | Core 2 Duo 3.0 GHz | G-41 Motherboard | WiFi (InteI Core 2 Duo)",
+        "description": "320 GB SATA Hard Disk
+Intel Core 2 Duo Processor 3.0 GHz
+G-41 Motherboard, 4 GB Ram (DDR 3)
+Includes 1 Year Antivirus
+Windows 10 Full Version Operating System",
+        "price": "₹12,999",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/31q9ptXN1HL.jpg","https://images-na.ssl-images-amazon.com/images/I/716WdtZra8L._SL1500_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-Desktop-i3-8100-Windows/dp/B07DPN77GH/ref=sxin_9?ascsubtag=amzn1.osa.dba519b2-a271-475d-9daa-7534dfc50d26.A21TJRUUN4KGV.en_IN&amp;creativeASIN=B07DPN77GH&amp;cv_ct_cx=CPU&amp;cv_ct_id=amzn1.osa.dba519b2-a271-475d-9daa-7534dfc50d26.A21TJRUUN4KGV.en_IN&amp;cv_ct_pg=search&amp;cv_ct_wn=osp-single-source-gl-ranking&amp;dchild=1&amp;keywords=CPU&amp;linkCode=oas&amp;pd_rd_i=B07DPN77GH&amp;pd_rd_r=a8eb14f4-7a4a-4d30-bb87-885d8fe8efdd&amp;pd_rd_w=O0OBc&amp;pd_rd_wg=aGX1s&amp;pf_rd_p=e0ec3157-32a0-4197-a7f6-49f9023b486e&amp;pf_rd_r=J0HH89G7PEZVGV5FRF57&amp;qid=1602309206&amp;sr=1-2-5b72de9d-29e4-4d53-b588-61ea05f598f4&amp;tag=digitin-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "CPU",
+        "name": "Dell Inspiron 3000 3470 Desktop Tower (Intel Core i 3, 8th Gen) i3-8100 3.60 GHz, 4 GB DDR4 SDRAM, 1 TB HDD, Windows 10 Home 64-bit",
+        "description": "Inspiron 3470, 8th Generation Intel Core i3-8100 processor (6MB Cache, up to 3.6 GHz)
+Windows 10 Home 64-bit English
+IntelR UHD Graphics 630
+Without DVD writer",
+        "price": "₹39,000",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/411GUBFXXSL.jpg","https://images-na.ssl-images-amazon.com/images/I/412S-LtOiML.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Foxin-Assembled-Computer-Installed-Education/dp/B08GP4ZXGS/ref=sr_1_3?dchild=1&amp;keywords=CPU&amp;qid=1602309206&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Corsair-Vengeance-3000Mhz-Motherboard-CMK8GX4M1D3000C16/dp/B07B4FRMGV/ref=sr_1_5?dchild=1&amp;keywords=RAM&amp;qid=1602309459&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Memory",
+        "name": "Corsair Vengeance LPX 8GB DDR4 3000 (PC4-24000) C16 PC Memory (CMK8GX4M1D3000C16)",
+        "description": "Each vengeance LPX module is built with a pure aluminium heat spreader for faster heat dissipation and cooler operation
+Available in multiple colours to match your motherboard, your components, or just your style
+Vengeance LPX is optimized and compatibility tested for the latest Intel Z370 series motherboards and offers higher frequencies, greater bandwidth, and lower power consumption
+The Vengeance LPX module height is carefully designed to fit smaller spaces
+XMP 2.0 enabled for superior overclocking
+Warranty, Parts: Lifetime Warranty(Max 10 Years)
+Country of Origin: Taiwan",
+        "price": "₹6,899",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/71YRGPiR2kL._SL1500_.jpg","https://images-na.ssl-images-amazon.com/images/I/71%2BmVJf7F%2BL._SL1500_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/XPG-GAMMIX-3000MHz-Desktop-AX4U300038G16A-SR30/dp/B07T4S6XX1/ref=sr_1_6?dchild=1&amp;keywords=RAM&amp;qid=1602309459&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Memory",
+        "name": "XPG ADATA GAMMIX D30 DDR4 8GB (1x8GB) 3000MHz U-DIMM Desktop Memory -AX4U300038G16A-SR30",
+        "description": "Check out the buying guide in videos section
+Unique heatsink design with edgy wing-shaped
+8GB (1x8GB) DDR4 RAM
+Fast speeds up to 3000MHz
+U-DIMM Desktop Memory. Supports Intel X299 platform and AMD AM4/Ryzen Platforms
+Intel XMP 2.0 for hassle-free overclocking
+3 years manufacturer warranty
+For Technical Support: Visit us on Adata website &gt; Support &gt; Technical Support for compatibility search",
+        "price": "₹5,299",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/71gc6CTRNTL._SL1500_.jpg","https://images-na.ssl-images-amazon.com/images/I/71SyQPwco0L._SL1500_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Simmtronics-Dddr-2-800-6400-Desktop/dp/B00KG5QZKS/ref=sr_1_7?dchild=1&amp;keywords=RAM&amp;qid=1602309459&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Memory",
+        "name": "Simmtronics 2GB DDR2 Desktop RAM 800 MHZ",
+        "description": "Fast and efficient
+Good responsive
+Unbuffered
+3 year warranty",
+        "price": "₹1,899",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/71fP6yRtx9L._SL1500_.jpg","https://images-na.ssl-images-amazon.com/images/I/61CVhrTE48L._SL1500_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "CPU",
+        "name": "Foxin Assembled Desktop Computer (Core 2 Duo CPU / 4GB RAM / 500GB HDD/No DVD Drive/WiFi Facility) with Windows 7 Trial Version Pre Installed for Online Education",
+        "description": " Foxin Assembled Desktop Computer (Core 2 Duo CPU / 4GB RAM / 500GB HDD/No DVD Drive/WiFi Facility) with Windows 7 Trial Version Pre Installed for Online Education
+Package Includes : Desktop package includes Computer Power Cable / Computer Motherboard Drivers CD / Warranty Information / Support Information
+One Year Warranty available for whole Desktop Computer . Call our Toll Free Number for Foxin Assembled Desktop computer technical problems.",
+        "price": "₹6,900",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/410zzynDaSL.jpg","https://images-na.ssl-images-amazon.com/images/I/412mObR5MYL.jpg"] 
 }	 </t>
   </si>
 </sst>
@@ -667,7 +805,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,8 +842,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6A5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -882,12 +1026,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1008,10 +1167,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1021,6 +1202,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6A5B"/>
       <color rgb="FFFC7D2F"/>
       <color rgb="FFA345FF"/>
     </mruColors>
@@ -1333,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4186AB24-C0A3-CD42-9BAF-FC52B8120E1F}">
-  <dimension ref="A2:H64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,12 +1532,15 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="46"/>
+    </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="47" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1375,7 +1560,7 @@
     <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="22"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="3"/>
@@ -1389,7 +1574,7 @@
       <c r="B4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -1409,7 +1594,7 @@
     <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -1429,7 +1614,7 @@
     <row r="6" spans="1:8" ht="152" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -1449,7 +1634,7 @@
     <row r="7" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="48" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -1469,7 +1654,7 @@
     <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -1491,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="24"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="21" t="s">
@@ -1511,7 +1696,7 @@
     <row r="10" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="49" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -1528,10 +1713,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="21" t="s">
@@ -1551,7 +1736,7 @@
     <row r="12" spans="1:8" ht="152" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -1571,7 +1756,7 @@
     <row r="13" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="49" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="21" t="s">
@@ -1593,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -1603,10 +1788,10 @@
         <v>9999</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>47</v>
@@ -1615,7 +1800,7 @@
     <row r="15" spans="1:8" ht="228" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="24"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1625,51 +1810,63 @@
         <v>39999</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="E16" s="17"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="E17" s="17"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="E18" s="17"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="24"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -1679,154 +1876,162 @@
         <v>3799</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="21" t="s">
-        <v>57</v>
+      <c r="C20" s="50" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E20" s="17">
         <v>3599</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="323" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="17" t="s">
-        <v>123</v>
+      <c r="C21" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="17" t="s">
-        <v>124</v>
+      <c r="C22" s="50" t="s">
+        <v>117</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="24"/>
-      <c r="C23" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="17"/>
+      <c r="C23" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="E23" s="17"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="171" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B24" s="24"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>67</v>
       </c>
       <c r="E24" s="20">
         <v>13399</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="190" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41"/>
       <c r="B25" s="24"/>
-      <c r="C25" s="21" t="s">
-        <v>69</v>
+      <c r="C25" s="50" t="s">
+        <v>128</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="E25" s="17">
         <v>599</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
       <c r="B26" s="24"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="E26" s="17"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="41"/>
       <c r="B27" s="24"/>
-      <c r="C27" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="17"/>
+      <c r="C27" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="E27" s="17"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
       <c r="B28" s="24"/>
-      <c r="C28" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="17"/>
+      <c r="C28" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="E28" s="17"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1834,152 +2039,158 @@
     </row>
     <row r="29" spans="1:8" ht="95" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B29" s="24"/>
-      <c r="C29" s="21" t="s">
-        <v>60</v>
+      <c r="C29" s="49" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="23">
         <v>3799</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="76" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="24"/>
-      <c r="C30" s="21" t="s">
-        <v>63</v>
+      <c r="C30" s="49" t="s">
+        <v>61</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="19">
         <v>64990</v>
       </c>
-      <c r="F30" s="45" t="s">
-        <v>81</v>
+      <c r="F30" s="44" t="s">
+        <v>77</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="24"/>
-      <c r="C31" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="17"/>
+      <c r="C31" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="E31" s="19"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="24"/>
-      <c r="C32" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="17"/>
+      <c r="C32" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="E32" s="17"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="133" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="24"/>
-      <c r="C33" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="6"/>
+      <c r="C33" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="404" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="C34" s="6" t="s">
-        <v>110</v>
+      <c r="C34" s="51" t="s">
+        <v>106</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="372" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="6" t="s">
-        <v>109</v>
+      <c r="C35" s="51" t="s">
+        <v>105</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="6" t="s">
-        <v>108</v>
+      <c r="C36" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="6" t="s">
-        <v>113</v>
+      <c r="C37" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="6" t="s">
-        <v>115</v>
+      <c r="C38" s="51" t="s">
+        <v>111</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -1991,77 +2202,77 @@
         <v>6</v>
       </c>
       <c r="B39" s="24"/>
-      <c r="C39" s="6" t="s">
-        <v>72</v>
+      <c r="C39" s="52" t="s">
+        <v>68</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="6">
-        <v>6000</v>
+        <v>69</v>
+      </c>
+      <c r="E39" s="45">
+        <v>5999</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="24"/>
-      <c r="C40" s="44" t="s">
-        <v>77</v>
+      <c r="C40" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="6">
-        <v>6800</v>
+        <v>74</v>
+      </c>
+      <c r="E40" s="45">
+        <v>6799</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="44" t="s">
-        <v>98</v>
+      <c r="C41" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="6">
-        <v>5750</v>
+        <v>95</v>
+      </c>
+      <c r="E41" s="45">
+        <v>5749</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="6" t="s">
-        <v>111</v>
+      <c r="C42" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -2071,11 +2282,11 @@
     <row r="43" spans="1:8" ht="356" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="6" t="s">
-        <v>112</v>
+      <c r="C43" s="51" t="s">
+        <v>108</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -2089,7 +2300,7 @@
       <c r="B44" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2099,7 +2310,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
       <c r="B45" s="24"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -2109,7 +2320,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="28"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -2119,7 +2330,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="28"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2129,7 +2340,7 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="28"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -2141,7 +2352,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -2151,7 +2362,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="24"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2161,7 +2372,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
       <c r="B51" s="24"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -2171,7 +2382,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="30"/>
       <c r="B52" s="24"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -2181,7 +2392,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="24"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -2310,7 +2521,9 @@
     <hyperlink ref="F15" r:id="rId16" xr:uid="{17A3EA92-76E0-CC41-9DE1-884DBEF1F7C6}"/>
     <hyperlink ref="D42" r:id="rId17" xr:uid="{0D3BC2FE-74C4-DF49-BEC4-CEEA82D48D43}"/>
     <hyperlink ref="D37" r:id="rId18" xr:uid="{CE1BD759-206B-5E4E-9702-BFA87333A37C}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{BF4E3813-883B-3949-B6D9-5119B3A39E01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Database/database1.xlsx
+++ b/Database/database1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khushimehta/Desktop/mini-project-one 1/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052E787-8E35-6240-BCEB-8DDCF7541068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F2061-AB7E-A54C-AAD1-5D329B256496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{D4E07BE7-B0B0-E344-9DB5-FA7A25B518D2}"/>
+    <workbookView minimized="1" xWindow="10520" yWindow="40" windowWidth="23000" windowHeight="14060" xr2:uid="{D4E07BE7-B0B0-E344-9DB5-FA7A25B518D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="143">
   <si>
     <t>Monitors</t>
   </si>
@@ -706,21 +705,6 @@
 }	 </t>
   </si>
   <si>
-    <t>https://www.amazon.in/Simmtronics-Dddr-2-800-6400-Desktop/dp/B00KG5QZKS/ref=sr_1_7?dchild=1&amp;keywords=RAM&amp;qid=1602309459&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-	 "category": "Memory",
-        "name": "Simmtronics 2GB DDR2 Desktop RAM 800 MHZ",
-        "description": "Fast and efficient
-Good responsive
-Unbuffered
-3 year warranty",
-        "price": "₹1,899",
-        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/71fP6yRtx9L._SL1500_.jpg","https://images-na.ssl-images-amazon.com/images/I/61CVhrTE48L._SL1500_.jpg"] 
-}	 </t>
-  </si>
-  <si>
     <t xml:space="preserve">{
 	 "category": "CPU",
         "name": "Foxin Assembled Desktop Computer (Core 2 Duo CPU / 4GB RAM / 500GB HDD/No DVD Drive/WiFi Facility) with Windows 7 Trial Version Pre Installed for Online Education",
@@ -731,6 +715,27 @@
         "pictures": ["https://images-na.ssl-images-amazon.com/images/I/410zzynDaSL.jpg","https://images-na.ssl-images-amazon.com/images/I/412mObR5MYL.jpg"] 
 }	 </t>
   </si>
+  <si>
+    <t xml:space="preserve">{
+	 "category": "Memory",
+        "name": "Crucial CT8G4SFS824A 8GB DDR4-2400 PC4-19200 CL-17 SODIMM RAM",
+        "description": "Fast and efficient
+Good responsive
+Unbuffered
+3 year warranty",
+        "price": "₹3,399",
+        "pictures": ["https://images-na.ssl-images-amazon.com/images/I/71exOjbZWiL._SL1280_.jpg","https://images-na.ssl-images-amazon.com/images/I/714kaITKGoL._SL1280_.jpg"] 
+}	 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Crucial-8GB-DDR4-2400-SODIMM-CT8G4SFS824A/dp/B01BIWKP58/ref=sr_1_10?dchild=1&amp;keywords=RAM&amp;qid=1603012824&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
 </sst>
 </file>
 
@@ -739,7 +744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;#,##0.00_);[Red]\(&quot;₹&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -772,12 +777,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFC7D2F"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="20"/>
       <color theme="1"/>
@@ -798,14 +797,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="19"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,6 +838,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6A5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,68 +1061,85 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1161,38 +1195,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1515,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4186AB24-C0A3-CD42-9BAF-FC52B8120E1F}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="64" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,974 +1552,989 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="J3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>4999</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="49" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>24999</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="49" t="s">
+      <c r="J5" s="48"/>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="152" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>23999</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="76" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="48" t="s">
+      <c r="J6" s="54"/>
+      <c r="K6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="76" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>17999</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="48" t="s">
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>17999</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="95" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:11" ht="95" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>10999</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="49" t="s">
+    <row r="10" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>11999</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="50" t="s">
+    <row r="11" spans="1:11" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>6999</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="49" t="s">
+    <row r="12" spans="1:11" ht="152" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>10999</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="49" t="s">
+    <row r="13" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>8999</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>9999</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="228" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="49" t="s">
+    <row r="15" spans="1:11" ht="228" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <v>39999</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="50" t="s">
+    <row r="16" spans="1:11" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="50" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="50" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="13">
+        <v>3799</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3599</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="16">
+        <v>13399</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="13">
+        <v>599</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="95" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3799</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="76" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="15">
+        <v>64990</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="17">
-        <v>3799</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="17">
-        <v>3599</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="20">
-        <v>13399</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="17">
-        <v>599</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="95" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="23">
-        <v>3799</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="76" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="19">
-        <v>64990</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="51" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="51" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="51" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="51" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="51" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="52" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="23">
         <v>5999</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="53" t="s">
+    <row r="40" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="23">
         <v>6799</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="53" t="s">
+    <row r="41" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="23">
         <v>5749</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="289" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="51" t="s">
+    <row r="42" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A42" s="32"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" ht="356" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B44:B53"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B4:B43"/>
   </mergeCells>
   <hyperlinks>
@@ -2522,6 +2557,8 @@
     <hyperlink ref="D42" r:id="rId17" xr:uid="{0D3BC2FE-74C4-DF49-BEC4-CEEA82D48D43}"/>
     <hyperlink ref="D37" r:id="rId18" xr:uid="{CE1BD759-206B-5E4E-9702-BFA87333A37C}"/>
     <hyperlink ref="D23" r:id="rId19" xr:uid="{BF4E3813-883B-3949-B6D9-5119B3A39E01}"/>
+    <hyperlink ref="D33" r:id="rId20" xr:uid="{31414DB4-13B6-124E-8578-53B34473875B}"/>
+    <hyperlink ref="H8" r:id="rId21" xr:uid="{F72B6B45-45D6-B141-8AD0-76D9E1E7683A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
